--- a/MCU_Board/MCU_Board - MDP/WDY_MCU_Board_Part_List.xlsx
+++ b/MCU_Board/MCU_Board - MDP/WDY_MCU_Board_Part_List.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="125">
   <si>
     <t>Value</t>
   </si>
@@ -324,21 +324,6 @@
     <t>Surface-mounting Switches Ideal for</t>
   </si>
   <si>
-    <t>BC-2-P</t>
-  </si>
-  <si>
-    <t>JP1</t>
-  </si>
-  <si>
-    <t>EXMACHINA-LOGO-NAME</t>
-  </si>
-  <si>
-    <t>EXM-LOGO-BASELINE</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
     <t>FC-135</t>
   </si>
   <si>
@@ -348,18 +333,6 @@
     <t>Q13FC13500004</t>
   </si>
   <si>
-    <t>FIDUCIAL1X2</t>
-  </si>
-  <si>
-    <t>FIDUCIAL-1X2</t>
-  </si>
-  <si>
-    <t>JP2, JP3, JP4, JP5</t>
-  </si>
-  <si>
-    <t>Fiducial Alignment Points</t>
-  </si>
-  <si>
     <t>LPC1768FBD100</t>
   </si>
   <si>
@@ -384,18 +357,6 @@
     <t>MMBT2222ALT1G</t>
   </si>
   <si>
-    <t>MOUNT-HOLE3.0</t>
-  </si>
-  <si>
-    <t>3,0</t>
-  </si>
-  <si>
-    <t>H1, H2, H3, H4</t>
-  </si>
-  <si>
-    <t>MOUNTING HOLE with drill center marker</t>
-  </si>
-  <si>
     <t>SN74LVC3G17DCTR</t>
   </si>
   <si>
@@ -427,6 +388,21 @@
   </si>
   <si>
     <t>J13</t>
+  </si>
+  <si>
+    <t>INDUCTANCE</t>
+  </si>
+  <si>
+    <t>MCU Cortex M3</t>
+  </si>
+  <si>
+    <t>DIGITAL POTENTIOMETER</t>
+  </si>
+  <si>
+    <t>MCMR06X000 PTL</t>
+  </si>
+  <si>
+    <t>B3FS1015</t>
   </si>
 </sst>
 </file>
@@ -477,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -498,21 +474,38 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -618,19 +611,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:G33" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:G33"/>
-  <sortState ref="A2:G33">
-    <sortCondition ref="E1:E33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:G29" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G29"/>
+  <sortState ref="A2:G29">
+    <sortCondition ref="D1:D29"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Qty" dataDxfId="8"/>
-    <tableColumn id="2" name="Value" dataDxfId="7"/>
-    <tableColumn id="3" name="Device" dataDxfId="6"/>
-    <tableColumn id="4" name="Package" dataDxfId="5"/>
-    <tableColumn id="5" name="Parts" dataDxfId="4"/>
-    <tableColumn id="6" name="Description" dataDxfId="3"/>
-    <tableColumn id="10" name="MPN" dataDxfId="2"/>
+    <tableColumn id="1" name="Qty" dataDxfId="6"/>
+    <tableColumn id="2" name="Value" dataDxfId="5"/>
+    <tableColumn id="3" name="Device" dataDxfId="4"/>
+    <tableColumn id="4" name="Package" dataDxfId="3"/>
+    <tableColumn id="5" name="Parts" dataDxfId="1"/>
+    <tableColumn id="6" name="Description" dataDxfId="2"/>
+    <tableColumn id="10" name="MPN" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -983,7 +976,7 @@
       </c>
       <c r="B10" s="3">
         <f ca="1">TODAY()</f>
-        <v>42759</v>
+        <v>42760</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1005,18 +998,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G17" sqref="G17:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="53.85546875" style="13" customWidth="1"/>
     <col min="6" max="6" width="70.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
@@ -1041,10 +1034,10 @@
       <c r="C1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -1059,156 +1052,158 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
+      </c>
+      <c r="D2" s="8">
+        <v>603</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>53</v>
+        <v>120</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>18</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>39</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3000</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3000</v>
+      </c>
+      <c r="D3" s="8">
+        <v>3000</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="10">
+        <v>3000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>59</v>
+        <v>76</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1647397</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>120</v>
+        <v>4</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2007041</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2007161</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2007069</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>75</v>
+      <c r="G6" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1647397</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2007100</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>78</v>
+      <c r="G7" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>130</v>
+        <v>73</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2007161</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1221,258 +1216,270 @@
       <c r="C9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="6">
-        <v>2007041</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>66</v>
+        <v>85</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>5</v>
+        <v>87</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="6">
-        <v>2007069</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="6">
-        <v>2007100</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>71</v>
+      <c r="E12" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>72</v>
+        <v>31</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>108</v>
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="4">
-        <v>603</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>33</v>
+        <v>98</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>8</v>
+        <v>99</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>82</v>
+        <v>3</v>
+      </c>
+      <c r="B17" s="4">
+        <v>33</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>83</v>
+      <c r="E17" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>3</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>63</v>
+        <v>19</v>
+      </c>
+      <c r="B18" s="4">
+        <v>100</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>64</v>
+      <c r="E18" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>65</v>
+      <c r="G18" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>19</v>
-      </c>
-      <c r="B19" s="4">
-        <v>100</v>
-      </c>
-      <c r="C19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>44</v>
+      <c r="E19" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>45</v>
+      <c r="G19" s="10" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>3</v>
-      </c>
-      <c r="B20" s="4">
-        <v>33</v>
+        <v>2</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>80</v>
+      <c r="E20" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>81</v>
+      <c r="G20" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1485,147 +1492,155 @@
       <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="11" t="s">
         <v>61</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>43</v>
+      <c r="E22" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="10" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>47</v>
+      <c r="E23" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>11</v>
+      <c r="G23" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>96</v>
+        <v>113</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>115</v>
+        <v>89</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>117</v>
+        <v>92</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>1</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>91</v>
+        <v>104</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>93</v>
+        <v>107</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1633,20 +1648,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1654,110 +1671,22 @@
         <v>1</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>2</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>1</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>1</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>1</v>
-      </c>
-      <c r="B33" s="4">
-        <v>3000</v>
-      </c>
-      <c r="C33" s="4">
-        <v>3000</v>
-      </c>
-      <c r="D33" s="4">
-        <v>3000</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4">
-        <v>3000</v>
+        <v>117</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
